--- a/Public/doc/项目计划_袁茹兵.xlsx
+++ b/Public/doc/项目计划_袁茹兵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>单车一览功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车信息查询展示，新增，修改，删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
   </si>
 </sst>
 </file>
@@ -483,7 +498,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -563,16 +578,34 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42859</v>
+      </c>
+      <c r="G4" s="8">
+        <v>42860</v>
+      </c>
+      <c r="H4" s="8">
+        <v>42859</v>
+      </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>

--- a/Public/doc/项目计划_袁茹兵.xlsx
+++ b/Public/doc/项目计划_袁茹兵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,26 @@
   </si>
   <si>
     <t>开发中</t>
+  </si>
+  <si>
+    <t>单车一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车组合查询，导出EXCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息查询新增修改删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,14 +518,14 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="7" customWidth="1"/>
     <col min="5" max="9" width="12.25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.25" style="4" customWidth="1"/>
@@ -609,7 +629,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
@@ -620,20 +640,40 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42860</v>
+      </c>
+      <c r="G6" s="8">
+        <v>42863</v>
+      </c>
+      <c r="H6" s="8">
+        <v>42860</v>
+      </c>
+      <c r="I6" s="8">
+        <v>42863</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -644,20 +684,40 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42863</v>
+      </c>
+      <c r="G8" s="8">
+        <v>42863</v>
+      </c>
+      <c r="H8" s="8">
+        <v>42863</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42863</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -669,7 +729,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="8"/>
@@ -681,7 +741,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="8"/>
@@ -693,7 +753,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -705,7 +765,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="8"/>
@@ -717,7 +777,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="8"/>
@@ -729,7 +789,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -741,7 +801,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="8"/>
@@ -753,7 +813,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -765,7 +825,7 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
       <c r="F18" s="8"/>
@@ -777,7 +837,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -789,7 +849,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="8"/>
@@ -801,7 +861,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
@@ -813,7 +873,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -825,7 +885,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="6"/>
       <c r="E23" s="2"/>
       <c r="F23" s="8"/>
@@ -837,7 +897,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="6"/>
       <c r="E24" s="2"/>
       <c r="F24" s="8"/>
@@ -849,7 +909,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -861,7 +921,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2"/>
       <c r="F26" s="8"/>
@@ -873,7 +933,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -885,7 +945,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -897,7 +957,7 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -909,7 +969,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -921,7 +981,7 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="6"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -933,7 +993,7 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -945,7 +1005,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="6"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
